--- a/src/attributions/attributions_ig_traj_493.xlsx
+++ b/src/attributions/attributions_ig_traj_493.xlsx
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -1055,13 +1055,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1163,13 +1163,13 @@
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="n">
         <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
         <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -1217,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO2" t="n">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG2" t="n">
         <v>0</v>
@@ -1352,13 +1352,13 @@
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN2" t="n">
         <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW2" t="n">
         <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY2" t="n">
         <v>0</v>
@@ -1406,13 +1406,13 @@
         <v>0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF2" t="n">
         <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
@@ -1433,13 +1433,13 @@
         <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO2" t="n">
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ2" t="n">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG2" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR2" t="n">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY2" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0.2229496232934476</v>
       </c>
       <c r="C3" t="n">
         <v>-0</v>
@@ -1585,25 +1585,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03316821097604181</v>
+        <v>-0.01563017785038547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.3894271472447633</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06032889862977318</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1391265985716683</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.01065876745407512</v>
       </c>
       <c r="L3" t="n">
         <v>-0</v>
@@ -1612,349 +1612,349 @@
         <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.01653987722863135</v>
+        <v>-0.04238039309522577</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.1066608274233909</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0003965050325679441</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.002752094302605083</v>
+        <v>-0</v>
       </c>
       <c r="S3" t="n">
         <v>-0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.0452919894606281</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.02468439029386787</v>
+        <v>0.2099545154662528</v>
       </c>
       <c r="X3" t="n">
-        <v>-0</v>
+        <v>-0.06960125857111209</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1382738152034143</v>
+        <v>-0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.04729644280365133</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0.05205446731244951</v>
       </c>
       <c r="AD3" t="n">
         <v>-0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.05027830208038518</v>
+        <v>-0.1868897615840531</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>0.02550950501541154</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.1255414833016121</v>
+        <v>-0</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.01715479284715885</v>
+        <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0</v>
+        <v>-0.04876246020238564</v>
       </c>
       <c r="AM3" t="n">
         <v>-0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.06004521294969769</v>
+        <v>0.04599668653201297</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>0.1849058391745028</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0.01677497910376994</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.0263418268362373</v>
+        <v>-0</v>
       </c>
       <c r="AT3" t="n">
         <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0</v>
+        <v>-0.3515950858589577</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.29073027450044</v>
+        <v>0.05870802582686443</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>0.1920616674650006</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0.2602956870600808</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
         <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0.1666213831070701</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>0.0256774155623661</v>
       </c>
       <c r="BE3" t="n">
         <v>-0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.07373514922850712</v>
+        <v>0.03010194520410455</v>
       </c>
       <c r="BH3" t="n">
-        <v>0</v>
+        <v>0.1385929990617432</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.02369013458099802</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
         <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.04518721182040258</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
         <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>-0.008784609068900627</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.09685414670087333</v>
+        <v>0.05608331750642295</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>-0.03359485340239257</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.04266118481380215</v>
+        <v>-0</v>
       </c>
       <c r="BS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.05322245033034538</v>
+        <v>0</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0.07466558603530402</v>
       </c>
       <c r="BW3" t="n">
         <v>-0</v>
       </c>
       <c r="BX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.1569936589716348</v>
+        <v>0.03649232730325445</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0</v>
+        <v>-0.002321131074242084</v>
       </c>
       <c r="CA3" t="n">
-        <v>-0.03802867884751392</v>
+        <v>0</v>
       </c>
       <c r="CB3" t="n">
         <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0.04515568577563961</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
         <v>-0</v>
       </c>
       <c r="CE3" t="n">
-        <v>-0</v>
+        <v>0.102279189518487</v>
       </c>
       <c r="CF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.03048862314784061</v>
+        <v>0.07936152896685413</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0</v>
+        <v>-0.158859222120621</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.05770609647049423</v>
+        <v>-0</v>
       </c>
       <c r="CK3" t="n">
         <v>-0</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.01716349584927049</v>
+        <v>-0</v>
       </c>
       <c r="CM3" t="n">
         <v>-0</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>-0.1951122051018922</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.1368954437789318</v>
+        <v>0.01148636359830823</v>
       </c>
       <c r="CR3" t="n">
-        <v>0</v>
+        <v>0.1753291888429102</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.05028488871308252</v>
+        <v>0</v>
       </c>
       <c r="CT3" t="n">
         <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>-0.06901702460233822</v>
+        <v>-0</v>
       </c>
       <c r="CV3" t="n">
         <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>0.1135682007087218</v>
       </c>
       <c r="CX3" t="n">
         <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.02821179365104843</v>
+        <v>0.08538666186616423</v>
       </c>
       <c r="DA3" t="n">
-        <v>0</v>
+        <v>-0.1561600021000711</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.03276328529559997</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.05846688790868878</v>
+        <v>-0</v>
       </c>
       <c r="DE3" t="n">
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>-0</v>
+        <v>0.1829135612632133</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.1776974251995911</v>
+        <v>-0.4388910711699908</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>0.03480151781410147</v>
       </c>
       <c r="DK3" t="n">
-        <v>-0.01748569020947633</v>
+        <v>-0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.06857557585771502</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>-0</v>
+        <v>-0.07441115335551444</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.03317141551627807</v>
+        <v>-0.1007806431648111</v>
       </c>
       <c r="DS3" t="n">
-        <v>0</v>
+        <v>0.06736742480695258</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.00979989726457579</v>
+        <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>-0.02493295526736282</v>
+        <v>-0</v>
       </c>
       <c r="DW3" t="n">
         <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>0.03548991993541858</v>
       </c>
       <c r="DY3" t="n">
         <v>0</v>
@@ -1963,160 +1963,160 @@
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.1488775364377667</v>
+        <v>0.09557351901790809</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>-0.01966043603688492</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.1163308357555798</v>
+        <v>-0</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0.01372506711080439</v>
+        <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG3" t="n">
-        <v>-0</v>
+        <v>0.1037667325471608</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI3" t="n">
         <v>-0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-0.0007014159333555165</v>
+        <v>0.09738413778953332</v>
       </c>
       <c r="EK3" t="n">
-        <v>-0</v>
+        <v>-0.2623050031798645</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.02185928696860489</v>
+        <v>-0</v>
       </c>
       <c r="EM3" t="n">
         <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.03540133469582317</v>
+        <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP3" t="n">
-        <v>-0</v>
+        <v>0.2194986093029558</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.06998130156767694</v>
+        <v>0.01523339155594442</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>0.118382379728469</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.1548276303840342</v>
+        <v>-0</v>
       </c>
       <c r="EV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.06886878821126774</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
         <v>-0</v>
       </c>
       <c r="EY3" t="n">
-        <v>-0</v>
+        <v>0.1185365857722276</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.02366300589614649</v>
+        <v>0.0835378275167547</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>-0.1321988123309041</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.02651640438987658</v>
+        <v>-0</v>
       </c>
       <c r="FE3" t="n">
         <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02808251245413054</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
         <v>-0</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>-0.02366594145046082</v>
       </c>
       <c r="FI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ3" t="n">
         <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.1495065508640971</v>
+        <v>-0.0272252343475551</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>-0.03780131262122925</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.1201964077849696</v>
+        <v>-0</v>
       </c>
       <c r="FN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.02458252380316643</v>
+        <v>-0</v>
       </c>
       <c r="FP3" t="n">
         <v>-0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>-0</v>
+        <v>0.09859011501458473</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.02218625226577943</v>
+        <v>-0.04460925102565647</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0.04383740815910812</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.1635922360662183</v>
+        <v>-0</v>
       </c>
       <c r="FW3" t="n">
         <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.1666903039386059</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
         <v>0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>-0</v>
+        <v>0.08048953447667043</v>
       </c>
       <c r="GA3" t="n">
         <v>0</v>
@@ -2125,459 +2125,459 @@
         <v>-0</v>
       </c>
       <c r="GC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>0.08949861128678457</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.1282126255865446</v>
+        <v>0</v>
       </c>
       <c r="GF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.2151250258253691</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.2970028707362095</v>
+        <v>-0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.2320975184599297</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2545005039558056</v>
+        <v>-0.004836912372416211</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.1700403982929633</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1418101293234493</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.02444924519475665</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.1014514349577442</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1071729436586674</v>
+        <v>-0.003805641653301232</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.01650651362669556</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0960205296133561</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.08776614825658854</v>
+        <v>-0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.0127573684574052</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.06443163306495153</v>
+        <v>-0.05328044495525089</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-0.04381810055277049</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.005918386187507354</v>
+        <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.04171812014790694</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.04597815134615884</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.003155926243854032</v>
+        <v>0.04254229412265602</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0</v>
+        <v>0.06531567604452315</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.1732960270139771</v>
+        <v>-0</v>
       </c>
       <c r="AI4" t="n">
         <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.07636019202820746</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0</v>
+        <v>0.04461311359992135</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.1807702125210388</v>
+        <v>0.0467085706685244</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>-0.08329867558321594</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.03268510339050115</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
         <v>-0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.4618128283207873</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0</v>
+        <v>0.2827467430354832</v>
       </c>
       <c r="AV4" t="n">
         <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.1673257056588346</v>
+        <v>0.02153189740081798</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0</v>
+        <v>-0.2852277372840199</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0.1625468665712783</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0.1281343669866386</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>0.04642896665667132</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.1054468433785949</v>
+        <v>-0.0403015476677341</v>
       </c>
       <c r="BH4" t="n">
-        <v>0</v>
+        <v>-0.04902140610900069</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.07490599062592332</v>
+        <v>-0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.2160098176096897</v>
+        <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>0.04076143359372271</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.1530254259359422</v>
+        <v>-0.0494208544536805</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0</v>
+        <v>0.01828416129691111</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.01441593210224718</v>
+        <v>-0</v>
       </c>
       <c r="BS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT4" t="n">
         <v>-0</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0.1044190160109059</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0</v>
+        <v>0.1180639716657129</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.01062056666404129</v>
+        <v>-0.004658586076546979</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0</v>
+        <v>-0.04521921949055487</v>
       </c>
       <c r="CA4" t="n">
-        <v>-0.02627192524401516</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.1475540989513245</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>-0</v>
+        <v>-0.07417576873885827</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.127003851187081</v>
+        <v>-0.01082720393284347</v>
       </c>
       <c r="CI4" t="n">
-        <v>0</v>
+        <v>0.07645161761455052</v>
       </c>
       <c r="CJ4" t="n">
-        <v>-0.05303893008588737</v>
+        <v>-0</v>
       </c>
       <c r="CK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.07216528820871722</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0.02878744254328225</v>
       </c>
       <c r="CO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP4" t="n">
         <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.2835449711195163</v>
+        <v>0.02911955553285458</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.04975538318259749</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.235010232021317</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU4" t="n">
         <v>-0</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.1634080094915711</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0</v>
+        <v>-0.06061916548039552</v>
       </c>
       <c r="CX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.0468602042246315</v>
+        <v>-0.01744765639720074</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>0.08485044341805924</v>
       </c>
       <c r="DB4" t="n">
-        <v>-0.017060944231259</v>
+        <v>0</v>
       </c>
       <c r="DC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0.04102216391146146</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>-0</v>
+        <v>0.007300995963111436</v>
       </c>
       <c r="DG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.02477959171209717</v>
+        <v>0.02143222958685221</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.09379728600986759</v>
       </c>
       <c r="DK4" t="n">
-        <v>-0.003503827554452232</v>
+        <v>0</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM4" t="n">
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.0150816256356074</v>
+        <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0</v>
+        <v>-0.02980681150828735</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.06387246391883111</v>
+        <v>0.005880458824539774</v>
       </c>
       <c r="DS4" t="n">
-        <v>0</v>
+        <v>0.05462149560273964</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.13561024258985</v>
+        <v>0</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.03600548548408242</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0</v>
+        <v>-0.04562858184411658</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
         <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.02957534501919105</v>
+        <v>0.00468072083130245</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>0.002435969123148931</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0.08353195821092273</v>
+        <v>-0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.1483157830398879</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>-0</v>
+        <v>-0.04634861770399034</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
         <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.05864277440019959</v>
+        <v>0.01908783012818503</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0.02448874180248607</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.1106812241043977</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN4" t="n">
         <v>-0</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.01216401901929656</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>0.007133001070545794</v>
       </c>
       <c r="EQ4" t="n">
         <v>0</v>
@@ -2586,109 +2586,109 @@
         <v>-0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.1716168807003575</v>
+        <v>0.002928828483184322</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>0.05750965842108702</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.08122118326637186</v>
+        <v>-0</v>
       </c>
       <c r="EV4" t="n">
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.1884528439231926</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.05100873901651892</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.0698667340085472</v>
+        <v>-0.0128588735841454</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.07256476583256372</v>
       </c>
       <c r="FD4" t="n">
-        <v>-0.02931484936500892</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.1476163294759538</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0</v>
+        <v>-0.04037240121307548</v>
       </c>
       <c r="FI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.004495922770908909</v>
+        <v>-0.0338166970243739</v>
       </c>
       <c r="FL4" t="n">
-        <v>-0</v>
+        <v>-0.05195467014787692</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0.1145299451061493</v>
+        <v>-0</v>
       </c>
       <c r="FN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO4" t="n">
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.04834017223024101</v>
+        <v>-0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0</v>
+        <v>-0.133669687270074</v>
       </c>
       <c r="FR4" t="n">
         <v>-0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>-0.1229773343185271</v>
+        <v>0.01622284900944882</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>-0.02595711710139445</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.006068558517455023</v>
+        <v>-0</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX4" t="n">
         <v>-0</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.02881529202432298</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>-0</v>
+        <v>-0.01652251479547135</v>
       </c>
       <c r="GA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
         <v>-0</v>
@@ -2697,16 +2697,16 @@
         <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.05596439507394699</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.05281764996533307</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
         <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
         <v>-0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N5" t="n">
         <v>-0</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W5" t="n">
         <v>-0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF5" t="n">
         <v>-0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO5" t="n">
         <v>-0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX5" t="n">
         <v>-0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG5" t="n">
         <v>-0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP5" t="n">
         <v>-0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY5" t="n">
         <v>-0</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="CC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD5" t="n">
         <v>0</v>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH5" t="n">
         <v>-0</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
         <v>0</v>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ5" t="n">
         <v>-0</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI5" t="n">
         <v>0</v>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR5" t="n">
         <v>-0</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW5" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ5" t="n">
         <v>-0</v>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES5" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX5" t="n">
         <v>0</v>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB5" t="n">
         <v>-0</v>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK5" t="n">
         <v>-0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.06501713209384484</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3292,25 +3292,25 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03708497126700394</v>
+        <v>-0.002918579811698162</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>-0.02339568881727593</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.002305007439829915</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05993552365283827</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0.01746592795680981</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -3319,25 +3319,25 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0130942007847559</v>
+        <v>-0.01048576624128096</v>
       </c>
       <c r="O6" t="n">
-        <v>-0</v>
+        <v>0.009554872785561816</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001234954129379779</v>
+        <v>-0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02810933712465294</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0</v>
+        <v>-0.004406720003611924</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -3346,133 +3346,133 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.009751281548883238</v>
+        <v>-0.006032168187969662</v>
       </c>
       <c r="X6" t="n">
-        <v>-0</v>
+        <v>0.01594782080887999</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.01323801774178462</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.006749337865667922</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0</v>
+        <v>0.02368864123182405</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.006014447487154165</v>
+        <v>0.03106179943130236</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>0.008354969078582884</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.02272812165075184</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.004888936371621088</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.01353690794829275</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.004939864769039353</v>
+        <v>-0.006532492401438232</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>-0.01239308871308317</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.004707974961571314</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.005465800889855291</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
         <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0</v>
+        <v>0.0919755640383325</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.08546734547579551</v>
+        <v>0.01358734577652231</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.01430951070243201</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.06126846027287654</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.06780277804315631</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0</v>
+        <v>0.01243985522039477</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.01742211939346206</v>
+        <v>-0.01678910038249502</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.007784236198014612</v>
       </c>
       <c r="BI6" t="n">
-        <v>-0.008867859819816025</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.006519933083296097</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>-0</v>
+        <v>0.03539766878713249</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
@@ -3481,79 +3481,79 @@
         <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.02573247916163405</v>
+        <v>0.02441365433888213</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0</v>
+        <v>0.003817311172530213</v>
       </c>
       <c r="BR6" t="n">
-        <v>-0.01536192524165989</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0.00799709794044863</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
         <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.02393763522111604</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
         <v>-0</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.05546330725852062</v>
+        <v>-0.009912105544991844</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>0.01765441224188061</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.001890283274699524</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>-0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.02334094739263868</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.007170310533574756</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
         <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>-0.01395199054917289</v>
+        <v>-0.003722441878357546</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.0146385638868052</v>
       </c>
       <c r="CJ6" t="n">
-        <v>-0.00909867291320225</v>
+        <v>0</v>
       </c>
       <c r="CK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>-0.004356051225596735</v>
+        <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>0.01260361299429832</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
@@ -3562,25 +3562,25 @@
         <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.03282444924140163</v>
+        <v>0.002926197126651708</v>
       </c>
       <c r="CR6" t="n">
-        <v>-0</v>
+        <v>-0.03250905852227093</v>
       </c>
       <c r="CS6" t="n">
-        <v>-0.02048675581685595</v>
+        <v>0</v>
       </c>
       <c r="CT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.03511941949754704</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.002927851340577649</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
@@ -3589,52 +3589,52 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.0116091540484173</v>
+        <v>-0.002764196671433874</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.0179291444906401</v>
       </c>
       <c r="DB6" t="n">
-        <v>-0.003721418917342265</v>
+        <v>-0</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0.01522631430865933</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>0.006523381799016404</v>
       </c>
       <c r="DG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.02853519445536679</v>
+        <v>0.02584546709351912</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0</v>
+        <v>0.01366137399123851</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.01726496038194653</v>
+        <v>0</v>
       </c>
       <c r="DL6" t="n">
         <v>-0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0.01354750177703841</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.005507771255148644</v>
       </c>
       <c r="DP6" t="n">
         <v>-0</v>
@@ -3643,160 +3643,160 @@
         <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.01149840162380063</v>
+        <v>0.01771421814873081</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>-0.0007342559379146658</v>
       </c>
       <c r="DT6" t="n">
-        <v>-0.01074711389416489</v>
+        <v>0</v>
       </c>
       <c r="DU6" t="n">
         <v>-0</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.004512798455230155</v>
+        <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>-0.02919358367497146</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
         <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.02372005948891605</v>
+        <v>-0.03946997245523894</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>-0.0109894053815424</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0.01378441266755272</v>
+        <v>-0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0.02076587321894416</v>
+        <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.0006560535370579096</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.003561640167863725</v>
+        <v>-0.005057061005014705</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.003295861494545705</v>
       </c>
       <c r="EL6" t="n">
-        <v>-0.009778655893446278</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0.01453538162744107</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0.0008615967771984615</v>
       </c>
       <c r="EQ6" t="n">
         <v>-0</v>
       </c>
       <c r="ER6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.0006915626142828364</v>
+        <v>-0.02403045036171956</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>-0.05062621299513943</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0.04405643746678106</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0.007143669188160428</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>0.002179600402163711</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.01378398154522691</v>
+        <v>-0.003308215759348486</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.01840957691559093</v>
       </c>
       <c r="FD6" t="n">
-        <v>-0.005061506302632611</v>
+        <v>0</v>
       </c>
       <c r="FE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0.008441290110468895</v>
+        <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0</v>
+        <v>-0.02294373741761232</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
         <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.004662834298165419</v>
+        <v>-0.03920524170297665</v>
       </c>
       <c r="FL6" t="n">
-        <v>-0</v>
+        <v>-0.0005171494891935427</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0.01549433276587156</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
         <v>-0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0.01560084311249186</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
         <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0.006115051966071906</v>
       </c>
       <c r="FR6" t="n">
         <v>0</v>
@@ -3805,46 +3805,46 @@
         <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.01336829584671442</v>
+        <v>-0.01367758068932188</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.03243719394605061</v>
       </c>
       <c r="FV6" t="n">
-        <v>-0.009450278255126766</v>
+        <v>-0</v>
       </c>
       <c r="FW6" t="n">
         <v>-0</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.007290718625950751</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>-0.02752501020328721</v>
       </c>
       <c r="GA6" t="n">
         <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>-0</v>
+        <v>-0.00506044453806813</v>
       </c>
       <c r="GE6" t="n">
-        <v>-0.02312296657386238</v>
+        <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
-        <v>-0.02899485459941183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3852,70 +3852,70 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.380853557324188</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.02289628577075757</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.09682741847732895</v>
       </c>
       <c r="E7" t="n">
-        <v>0.009352060910064642</v>
+        <v>-0.1129928897474449</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0951827027458991</v>
+        <v>-0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.2055929028230749</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.004525338794432814</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.01531000265119739</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.01032809092869934</v>
+        <v>-0.09717179187524111</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0602420933408369</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0</v>
+        <v>0.08526818550073029</v>
       </c>
       <c r="U7" t="n">
-        <v>0.008186515627380004</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>-0.005059758684612193</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02376574346543261</v>
+        <v>-0.02844791899399194</v>
       </c>
       <c r="X7" t="n">
         <v>-0</v>
@@ -3924,133 +3924,133 @@
         <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.001977394806498439</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.08473299377651866</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.02573357591407805</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>-0.03493316623115413</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.03905513861449179</v>
+        <v>-0.02719737836089133</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.03085535565267424</v>
+        <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.07405807262662563</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.0144713314876281</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0</v>
+        <v>-0.0453196973811081</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.02472215960858327</v>
+        <v>-0.0618210193562925</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.00703520582456736</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.4691787085395162</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.08857555875642431</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>-0.05304509613356172</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.02366355291364775</v>
+        <v>0.1051944945028299</v>
       </c>
       <c r="AY7" t="n">
         <v>0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.1077234929923504</v>
+        <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0</v>
+        <v>0.03172168507663346</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.007316179739784224</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>-0.02839999075693388</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.008441923828854375</v>
+        <v>-0.1453437952656053</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0.01645454064343204</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
         <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.06333902526661947</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.03800792454562944</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0</v>
+        <v>0.1058735477132679</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.03817742263361817</v>
+        <v>0.05814991754468933</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4059,25 +4059,25 @@
         <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0.01840550363994692</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.1830579533778363</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.007218580931535316</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>-0.01872335479236494</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.02490072096107561</v>
+        <v>-0.01361179548098808</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
@@ -4086,25 +4086,25 @@
         <v>-0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.05281894344238903</v>
+        <v>0</v>
       </c>
       <c r="CD7" t="n">
         <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.09338353106991613</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.01393788099095506</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>0.02280460714808465</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0007710134731307498</v>
+        <v>-0.001349131707046022</v>
       </c>
       <c r="CI7" t="n">
         <v>-0</v>
@@ -4116,49 +4116,49 @@
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0.02115116009246666</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.01497257518163219</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.0001545821097533361</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0.07746192281202478</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.01961192836930361</v>
+        <v>-0.1435985054177026</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
       </c>
       <c r="CS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT7" t="n">
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.05225832513544503</v>
+        <v>0</v>
       </c>
       <c r="CV7" t="n">
         <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.07474479180231892</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.002711082074860366</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>0</v>
+        <v>0.05378937688750599</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.002483274753006238</v>
+        <v>-0.004534378873813255</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
@@ -4170,25 +4170,25 @@
         <v>-0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0.02291558333946686</v>
+        <v>-0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.04809729714852571</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.04091349860343675</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0</v>
+        <v>0.06959070914982288</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.004341995609056015</v>
+        <v>-0.01607411113022358</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK7" t="n">
         <v>-0</v>
@@ -4197,25 +4197,25 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.04692601176228493</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.05044434144674634</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.001463718005561905</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>-0.0553079052236214</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.005916576876577183</v>
+        <v>-0.01150640841032182</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
         <v>-0</v>
@@ -4224,22 +4224,22 @@
         <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.01131830202771859</v>
+        <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>0.03503850989072818</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.01062308158016474</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0.0147448310680959</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.008977932035752978</v>
+        <v>0.002748645601794084</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
@@ -4248,25 +4248,25 @@
         <v>0</v>
       </c>
       <c r="ED7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0.02082948083971339</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.04864765062652235</v>
       </c>
       <c r="EH7" t="n">
-        <v>-0.003920275325503177</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0</v>
+        <v>0.07002720563331057</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.03232498089570738</v>
+        <v>0.04359880458646416</v>
       </c>
       <c r="EK7" t="n">
         <v>-0</v>
@@ -4275,52 +4275,52 @@
         <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>-0.03171007557178498</v>
+        <v>0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.07364217579119896</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0.004816478685597382</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0</v>
+        <v>-0.07657975131535187</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.024423297377249</v>
+        <v>-0.02370356002049023</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
         <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0.02936370069756368</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
         <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.08503057040599585</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.008246657304149798</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0</v>
+        <v>0.04415574275391208</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.007061851698761363</v>
+        <v>-0.01710806690010559</v>
       </c>
       <c r="FC7" t="n">
         <v>-0</v>
@@ -4332,73 +4332,73 @@
         <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0.02800942601925056</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
         <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>-0.004203276223254601</v>
       </c>
       <c r="FI7" t="n">
-        <v>-0.007298216403875047</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0</v>
+        <v>0.06278343807502372</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.00573038423794942</v>
+        <v>0.01255197723817824</v>
       </c>
       <c r="FL7" t="n">
         <v>0</v>
       </c>
       <c r="FM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN7" t="n">
         <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0.02869348436169001</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0</v>
+        <v>0.01988219125000099</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.01184461643435712</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0</v>
+        <v>0.03195364529373569</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.006313429738246814</v>
+        <v>0.05986995836001312</v>
       </c>
       <c r="FU7" t="n">
         <v>-0</v>
       </c>
       <c r="FV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW7" t="n">
         <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.001847439748991502</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>0.01049326725743675</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.01018561713780084</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.01625519529568334</v>
       </c>
       <c r="GC7" t="n">
         <v>0</v>
@@ -4407,13 +4407,13 @@
         <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0.03258044229510912</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -4442,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -4469,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -4496,13 +4496,13 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -4523,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -4550,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
@@ -4577,13 +4577,13 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
@@ -4604,13 +4604,13 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
@@ -4631,13 +4631,13 @@
         <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -4658,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
@@ -4685,13 +4685,13 @@
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
@@ -4766,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
@@ -4847,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="EN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
@@ -4874,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX8" t="n">
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
@@ -4901,13 +4901,13 @@
         <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
@@ -4990,16 +4990,16 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.2458315150865935</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0164323766251515</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0</v>
+        <v>-0.01826713532982115</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01496809243601066</v>
+        <v>-0.0470339239087962</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5011,103 +5011,103 @@
         <v>-0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07560371328733087</v>
+        <v>-0</v>
       </c>
       <c r="J9" t="n">
         <v>-0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.1071240055153555</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005364172848777012</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-0</v>
+        <v>0.007402800387860103</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.01944834411520505</v>
+        <v>-0.04386886137287675</v>
       </c>
       <c r="O9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.05879539868026401</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-0</v>
+        <v>0.0398645984004662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01191705356955455</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>-0.01517555838416521</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.000485223190889578</v>
+        <v>0.02836828933453334</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
         <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.02420929761371347</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
         <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.05308371004002189</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.03640147884301353</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>-7.60203684624829e-05</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.03506125657641896</v>
+        <v>0.005912102590495484</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0.04166669412875391</v>
+        <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0.0167910933116143</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.01926465708805974</v>
+        <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>-0.01546392756259078</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.03481663136102642</v>
+        <v>-0.04473898650005395</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
@@ -5119,52 +5119,52 @@
         <v>-0</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.001749930090338825</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>0.2963555512921405</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0.04339064426833845</v>
+        <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0</v>
+        <v>0.03375479632860889</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.03505930822484703</v>
+        <v>0.05982928386344579</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
         <v>-0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.08571940147300255</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>-0</v>
+        <v>0.0458186767214401</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0.02374181445155549</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0</v>
+        <v>-0.05104412361845075</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.01337197086163601</v>
+        <v>-0.04888923666459163</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
         <v>0</v>
@@ -5173,49 +5173,49 @@
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0.03453291475352703</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
         <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0</v>
+        <v>0.1200361680368921</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.05896590839352725</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0</v>
+        <v>0.01716399367289314</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.03160551263525505</v>
+        <v>0.09967068474216881</v>
       </c>
       <c r="BQ9" t="n">
         <v>-0</v>
       </c>
       <c r="BR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
-        <v>-0.03472574707793041</v>
+        <v>-0</v>
       </c>
       <c r="BU9" t="n">
         <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.1082697177699673</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.01607287209974033</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0</v>
+        <v>0.01695755102554124</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.02991138086204668</v>
+        <v>0.01149902914833913</v>
       </c>
       <c r="BZ9" t="n">
         <v>-0</v>
@@ -5227,49 +5227,49 @@
         <v>-0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.05700403534423453</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
         <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.0497714396994015</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.01908558503979263</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>0</v>
+        <v>-0.005940004048947387</v>
       </c>
       <c r="CH9" t="n">
-        <v>-0.005103478028267269</v>
+        <v>0.002721559828153732</v>
       </c>
       <c r="CI9" t="n">
         <v>-0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0.0122472451517381</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
         <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0.06388804960861319</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.01082643018135156</v>
+        <v>-0</v>
       </c>
       <c r="CP9" t="n">
-        <v>0</v>
+        <v>-0.03566992214282388</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.05417327540064476</v>
+        <v>-0.06605128431944993</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
@@ -5278,25 +5278,25 @@
         <v>0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.0562281791093575</v>
+        <v>-0</v>
       </c>
       <c r="CV9" t="n">
         <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.03222202127455614</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.02260323090083486</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0</v>
+        <v>0.006149511998701125</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.01778805101135185</v>
+        <v>0.001644417468286429</v>
       </c>
       <c r="DA9" t="n">
         <v>0</v>
@@ -5308,25 +5308,25 @@
         <v>0</v>
       </c>
       <c r="DD9" t="n">
-        <v>-0.0135906111024334</v>
+        <v>0</v>
       </c>
       <c r="DE9" t="n">
         <v>-0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.01147813313422553</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.05477190413540464</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0</v>
+        <v>0.06018337610829545</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.001966048515313176</v>
+        <v>0.003864099249007874</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK9" t="n">
         <v>-0</v>
@@ -5335,25 +5335,25 @@
         <v>0</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.007619301105338598</v>
+        <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.06933603048446708</v>
       </c>
       <c r="DP9" t="n">
-        <v>-0.04966343194027644</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0</v>
+        <v>-0.005969257634535146</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.009683467393770684</v>
+        <v>-0.01089032222145703</v>
       </c>
       <c r="DS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT9" t="n">
         <v>0</v>
@@ -5362,22 +5362,22 @@
         <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.03157702228533675</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>0.0007149157656239653</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0.00401991858881546</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0</v>
+        <v>-0.005399755198431089</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.01438685900589805</v>
+        <v>-0.02011821169854025</v>
       </c>
       <c r="EB9" t="n">
         <v>0</v>
@@ -5389,133 +5389,133 @@
         <v>0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0.02542736916380436</v>
+        <v>0</v>
       </c>
       <c r="EF9" t="n">
         <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.02744611727529017</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.00368488091449666</v>
+        <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>0</v>
+        <v>-0.002822909789727807</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.03359590976691564</v>
+        <v>0.04658639336749772</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL9" t="n">
         <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
-        <v>-0.01299528989889422</v>
+        <v>-0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.02268113426538877</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0.03435276151650681</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0</v>
+        <v>0.005741654331412545</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.01178398996746964</v>
+        <v>0.01799116637511195</v>
       </c>
       <c r="ET9" t="n">
         <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV9" t="n">
         <v>-0</v>
       </c>
       <c r="EW9" t="n">
-        <v>-0.03005580205365618</v>
+        <v>0</v>
       </c>
       <c r="EX9" t="n">
         <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.03130212841462071</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.02101050731784851</v>
+        <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>0</v>
+        <v>-0.001265317796424146</v>
       </c>
       <c r="FB9" t="n">
-        <v>-9.602161478062052e-05</v>
+        <v>0.01485988801465931</v>
       </c>
       <c r="FC9" t="n">
         <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE9" t="n">
         <v>-0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0.02325638776397272</v>
+        <v>-0</v>
       </c>
       <c r="FG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>0.01900050022139926</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.01858831021374967</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0</v>
+        <v>0.007748963296132397</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.04280940563117521</v>
+        <v>-0.0222772037501215</v>
       </c>
       <c r="FL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM9" t="n">
         <v>-0</v>
       </c>
       <c r="FN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0.05426930823734015</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>-0</v>
+        <v>-0.03865380100597599</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.003282995238486715</v>
+        <v>0</v>
       </c>
       <c r="FS9" t="n">
-        <v>0</v>
+        <v>-0.01642004459499565</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.02931963925010769</v>
+        <v>0.01510009413505103</v>
       </c>
       <c r="FU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV9" t="n">
         <v>0</v>
@@ -5524,19 +5524,19 @@
         <v>0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0.008486542474287069</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>-0.009993159035479662</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.02712800769581525</v>
+        <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>-0.01848033191782622</v>
       </c>
       <c r="GC9" t="n">
         <v>-0</v>
@@ -5548,10 +5548,10 @@
         <v>0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>-0.02500345439163801</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -5559,127 +5559,127 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.1776345209695684</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1683810864584786</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04097932027855507</v>
+        <v>0.00549025646733773</v>
       </c>
       <c r="F10" t="n">
-        <v>-0</v>
+        <v>-0.1156467589550354</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2991069200253173</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.1072411027805807</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.06452000551758097</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.003630878686486975</v>
+        <v>-0.006589712962130611</v>
       </c>
       <c r="O10" t="n">
-        <v>-0</v>
+        <v>-0.07290287221911321</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2762913364931996</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>0.005800719163954478</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.007920125740224481</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2081371316714915</v>
+        <v>-0.01378234667017674</v>
       </c>
       <c r="X10" t="n">
-        <v>-0</v>
+        <v>-0.003414993582636818</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.06351822684546284</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0</v>
+        <v>0.02940416462116417</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.02528737171688061</v>
+        <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.1025075092544589</v>
+        <v>0.02270726820570775</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>-0.009986270019558171</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0.1531650935939248</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.004122069309694638</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.01466448077201427</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.02899483898933581</v>
+        <v>-0.02232518669302404</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>-0.03612487151547446</v>
       </c>
       <c r="AQ10" t="n">
         <v>0</v>
@@ -5688,25 +5688,25 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.02481770924925105</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.1475749407870788</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0.1460415089025198</v>
+        <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.04468394604648238</v>
+        <v>0.001332775764935211</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>-0.06399385480306748</v>
       </c>
       <c r="AZ10" t="n">
         <v>0</v>
@@ -5715,52 +5715,52 @@
         <v>-0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.1556146237136493</v>
+        <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0</v>
+        <v>0.06226179109501132</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.01980826153360576</v>
+        <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.03952630653279172</v>
+        <v>-0.02725709059410663</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0</v>
+        <v>-0.0528943246273911</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.05193333893282498</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
         <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.06760219014751583</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0.03267880491359353</v>
+        <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.01225232665917515</v>
+        <v>0.04001298834779346</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0</v>
+        <v>0.01010445705740137</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
@@ -5769,295 +5769,295 @@
         <v>0</v>
       </c>
       <c r="BT10" t="n">
-        <v>-0.09129391754081137</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.05006524651131554</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0.07759062483931084</v>
+        <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.008743204677828241</v>
+        <v>-0.007134375679037886</v>
       </c>
       <c r="BZ10" t="n">
-        <v>-0</v>
+        <v>-0.005730533920236989</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.1637772574023676</v>
+        <v>0</v>
       </c>
       <c r="CD10" t="n">
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.03754900189547856</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.04935171653962704</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.001824542398420306</v>
+        <v>-0.005929777554157357</v>
       </c>
       <c r="CI10" t="n">
-        <v>0</v>
+        <v>0.03063184063086919</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>-0.04817322582432878</v>
+        <v>0</v>
       </c>
       <c r="CM10" t="n">
         <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.02372115512498258</v>
       </c>
       <c r="CO10" t="n">
         <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.002395138130451151</v>
+        <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.08183234050201152</v>
+        <v>0.0230054511682194</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0</v>
+        <v>-0.0256532375144957</v>
       </c>
       <c r="CS10" t="n">
         <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.05945418503653236</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
         <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.02308627271472779</v>
       </c>
       <c r="CX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.05788246440355867</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.02633459950025225</v>
+        <v>-0.006653788001798001</v>
       </c>
       <c r="DA10" t="n">
-        <v>-0</v>
+        <v>0.02910345547897495</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0.0640065828352286</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.01053440744505246</v>
       </c>
       <c r="DG10" t="n">
         <v>-0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.04383847004637075</v>
+        <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.004946132916131279</v>
+        <v>0.001499066172980735</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0</v>
+        <v>0.003995697144404436</v>
       </c>
       <c r="DK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL10" t="n">
         <v>-0</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.008291541949810204</v>
+        <v>-0</v>
       </c>
       <c r="DN10" t="n">
         <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.02972652219321475</v>
       </c>
       <c r="DP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.03391601965239659</v>
+        <v>0</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.08458859195787413</v>
+        <v>0.01249512168950253</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0</v>
+        <v>-0.01061684829849309</v>
       </c>
       <c r="DT10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU10" t="n">
         <v>-0</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.03758198425788117</v>
+        <v>0</v>
       </c>
       <c r="DW10" t="n">
         <v>-0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.004566930796599024</v>
       </c>
       <c r="DY10" t="n">
         <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>-0.0607471804173805</v>
+        <v>-0</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.03309744817659694</v>
+        <v>-0.01171185981868509</v>
       </c>
       <c r="EB10" t="n">
-        <v>0</v>
+        <v>-0.009422270867580743</v>
       </c>
       <c r="EC10" t="n">
         <v>-0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.06082184758786845</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
         <v>-0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.01614761785369196</v>
       </c>
       <c r="EH10" t="n">
         <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.02234210989405305</v>
+        <v>0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.0854848462855156</v>
+        <v>0.007156449420280132</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0</v>
+        <v>0.02037673838846636</v>
       </c>
       <c r="EL10" t="n">
         <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0.05749774979082073</v>
+        <v>0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0.02197785786385752</v>
       </c>
       <c r="EQ10" t="n">
         <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.0511908302260448</v>
+        <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>-0.02884808726892329</v>
+        <v>-0.002627792898445675</v>
       </c>
       <c r="ET10" t="n">
-        <v>0</v>
+        <v>0.04649649462044728</v>
       </c>
       <c r="EU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV10" t="n">
         <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>-0.03888384428334164</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
         <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.02672310356509288</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.03500597210739833</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>-0.01808239055358699</v>
+        <v>0.001153705973276036</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0</v>
+        <v>0.03306920351785166</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0.07976526357665631</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>-0.002804927469507515</v>
       </c>
       <c r="FI10" t="n">
         <v>0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.01794797986509782</v>
+        <v>-0</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.04612045283220133</v>
+        <v>-0.01985834150432377</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0</v>
+        <v>0.01407785185166578</v>
       </c>
       <c r="FM10" t="n">
         <v>-0</v>
@@ -6066,25 +6066,25 @@
         <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0.06019989469929247</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-0</v>
+        <v>-0.02388881107415649</v>
       </c>
       <c r="FR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.005009550430223713</v>
+        <v>0</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.006140626242864273</v>
+        <v>-0.02474253640926587</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0</v>
+        <v>0.001174448033182107</v>
       </c>
       <c r="FV10" t="n">
         <v>-0</v>
@@ -6093,34 +6093,34 @@
         <v>-0</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0.004655751315476828</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.02844633289912151</v>
       </c>
       <c r="GA10" t="n">
         <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.07270085900018056</v>
+        <v>-0</v>
       </c>
       <c r="GC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD10" t="n">
-        <v>-0</v>
+        <v>-0.01849692116716689</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
         <v>-0</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.01595828391255141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -6131,76 +6131,76 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.320455385817384</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-0.08353554736795653</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2045946873177795</v>
+        <v>-0.05956891169779496</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2073960715111996</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3782972211663228</v>
+        <v>-0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.2409714821305909</v>
       </c>
       <c r="M11" t="n">
-        <v>-0</v>
+        <v>-0.1006876759824117</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2730664530831636</v>
+        <v>-0.115195258659758</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.1744722680033433</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4023988929087379</v>
+        <v>-0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-0</v>
+        <v>0.0805572779131308</v>
       </c>
       <c r="V11" t="n">
-        <v>-0</v>
+        <v>-0.01860869067463162</v>
       </c>
       <c r="W11" t="n">
-        <v>0.09573098002645558</v>
+        <v>0.03708472004304367</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.03079235159445414</v>
+        <v>-0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.182216818677702</v>
+        <v>-0</v>
       </c>
       <c r="AA11" t="n">
         <v>-0</v>
@@ -6209,25 +6209,25 @@
         <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>0.06796289811580208</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>0.0469091879364484</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.09773550416476728</v>
+        <v>0.04629542926847506</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.06420947804286024</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.1149646266869865</v>
+        <v>-0</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
@@ -6239,76 +6239,76 @@
         <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0</v>
+        <v>-0.01605942614856922</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0</v>
+        <v>-0.04711731954383339</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.1885810467541996</v>
+        <v>-0.08720122097327571</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.02671202227844412</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0.01351386191381961</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
         <v>-0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0</v>
+        <v>0.1857165933327552</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>-0.01898742300753866</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.01631717696469721</v>
+        <v>0.1906756826544883</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0.2104545652955188</v>
+        <v>-0</v>
       </c>
       <c r="AZ11" t="n">
         <v>-0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.1597539814532594</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD11" t="n">
         <v>0</v>
       </c>
       <c r="BE11" t="n">
-        <v>0</v>
+        <v>0.08352709427024728</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>-0.02570493318281582</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.221597108636663</v>
+        <v>-0.08580193447553672</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0.03595299428925459</v>
+        <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.134056347542124</v>
+        <v>0</v>
       </c>
       <c r="BK11" t="n">
         <v>0</v>
@@ -6320,22 +6320,22 @@
         <v>-0</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0</v>
+        <v>0.03735593853718946</v>
       </c>
       <c r="BO11" t="n">
-        <v>-0</v>
+        <v>0.06578404730527426</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.02977504834933336</v>
+        <v>0.1371786444124596</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.05692844331517322</v>
+        <v>0</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>-0.06192035984935292</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
         <v>-0</v>
@@ -6344,52 +6344,52 @@
         <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW11" t="n">
-        <v>0</v>
+        <v>0.05615599127030271</v>
       </c>
       <c r="BX11" t="n">
-        <v>-0</v>
+        <v>-0.009694665540816341</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.04446453910240686</v>
+        <v>0.09263685857134378</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0.03794881682405376</v>
+        <v>0</v>
       </c>
       <c r="CA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.1407829038121985</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE11" t="n">
         <v>-0</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0</v>
+        <v>-0.07691448624048196</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0</v>
+        <v>0.02235367881989975</v>
       </c>
       <c r="CH11" t="n">
-        <v>-0.07320118004183145</v>
+        <v>-0.0008257919265429542</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.06129955257810082</v>
+        <v>0</v>
       </c>
       <c r="CJ11" t="n">
         <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>-0.08350326945371001</v>
+        <v>0</v>
       </c>
       <c r="CL11" t="n">
         <v>-0</v>
@@ -6398,109 +6398,109 @@
         <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO11" t="n">
-        <v>-0</v>
+        <v>0.01862582555324084</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0</v>
+        <v>-0.02462269641927648</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.1044341737935793</v>
+        <v>-0.1484435127965857</v>
       </c>
       <c r="CR11" t="n">
-        <v>-0.0462167941273714</v>
+        <v>-0</v>
       </c>
       <c r="CS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT11" t="n">
-        <v>-0.01011127570501467</v>
+        <v>-0</v>
       </c>
       <c r="CU11" t="n">
         <v>-0</v>
       </c>
       <c r="CV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW11" t="n">
         <v>0</v>
       </c>
       <c r="CX11" t="n">
-        <v>0</v>
+        <v>-0.05839225263848369</v>
       </c>
       <c r="CY11" t="n">
-        <v>0</v>
+        <v>0.02321116713356207</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.06949085670593591</v>
+        <v>0.02726907149489301</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.06242841236361707</v>
+        <v>-0</v>
       </c>
       <c r="DB11" t="n">
         <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>-0.112791174364189</v>
+        <v>0</v>
       </c>
       <c r="DD11" t="n">
         <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF11" t="n">
         <v>-0</v>
       </c>
       <c r="DG11" t="n">
-        <v>0</v>
+        <v>-0.03532182940177121</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>0.04584718788074212</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.02186305695159994</v>
+        <v>-0.004994866064923897</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.03940020561246712</v>
+        <v>0</v>
       </c>
       <c r="DK11" t="n">
         <v>-0</v>
       </c>
       <c r="DL11" t="n">
-        <v>-0.007844856456266716</v>
+        <v>0</v>
       </c>
       <c r="DM11" t="n">
         <v>-0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
         <v>-0</v>
       </c>
       <c r="DP11" t="n">
-        <v>-0</v>
+        <v>-0.01184816472031782</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0</v>
+        <v>0.02042451837417866</v>
       </c>
       <c r="DR11" t="n">
-        <v>-0.1097114862607513</v>
+        <v>-0.1489056740815438</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.03487869843331567</v>
+        <v>0</v>
       </c>
       <c r="DT11" t="n">
         <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>-0.01680573114093567</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
         <v>-0</v>
@@ -6509,103 +6509,103 @@
         <v>0</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0.06039219837236799</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0</v>
+        <v>0.004952023292836135</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.01080309784323984</v>
+        <v>-0.07027813416859992</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.02031322045637483</v>
+        <v>0</v>
       </c>
       <c r="EC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.01661144462225117</v>
+        <v>0</v>
       </c>
       <c r="EE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG11" t="n">
         <v>0</v>
       </c>
       <c r="EH11" t="n">
-        <v>-0</v>
+        <v>-0.1161331731999008</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0</v>
+        <v>0.04819160428218282</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.05036565165807508</v>
+        <v>0.06025233455103783</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.05619629333414263</v>
+        <v>-0</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>-0.0513615979331955</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
         <v>-0</v>
       </c>
       <c r="EO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0</v>
+        <v>-0.003755908231675974</v>
       </c>
       <c r="ER11" t="n">
-        <v>-0</v>
+        <v>0.02709603888884885</v>
       </c>
       <c r="ES11" t="n">
-        <v>-0.07993280770194298</v>
+        <v>0.0345901003276458</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.05891908618566389</v>
+        <v>0</v>
       </c>
       <c r="EU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV11" t="n">
-        <v>-0.1064967857699452</v>
+        <v>-0</v>
       </c>
       <c r="EW11" t="n">
         <v>-0</v>
       </c>
       <c r="EX11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY11" t="n">
         <v>0</v>
       </c>
       <c r="EZ11" t="n">
-        <v>-0</v>
+        <v>-0.07143152110174186</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0</v>
+        <v>0.03823557183849371</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.07490389355943806</v>
+        <v>0.02518396240979303</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.0678047895867691</v>
+        <v>0</v>
       </c>
       <c r="FD11" t="n">
         <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>-0.115923146486486</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
         <v>-0</v>
@@ -6617,22 +6617,22 @@
         <v>-0</v>
       </c>
       <c r="FI11" t="n">
-        <v>-0</v>
+        <v>-0.007635193005677666</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0</v>
+        <v>0.009592897212943468</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.01971296365974519</v>
+        <v>0.07525663687505103</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.002269551907702411</v>
+        <v>-0</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>-0.06148313987851915</v>
+        <v>0</v>
       </c>
       <c r="FO11" t="n">
         <v>0</v>
@@ -6641,55 +6641,55 @@
         <v>-0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR11" t="n">
-        <v>-0</v>
+        <v>-0.006509007177103279</v>
       </c>
       <c r="FS11" t="n">
-        <v>0</v>
+        <v>-0.008025710289393371</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.1176923870769118</v>
+        <v>0.07102971751609639</v>
       </c>
       <c r="FU11" t="n">
-        <v>-0.01340486063524797</v>
+        <v>0</v>
       </c>
       <c r="FV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>-0.01449181631916552</v>
+        <v>0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GA11" t="n">
-        <v>0</v>
+        <v>0.04320120178229583</v>
       </c>
       <c r="GB11" t="n">
-        <v>0</v>
+        <v>-0.04937933370180374</v>
       </c>
       <c r="GC11" t="n">
         <v>-0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0.05701673676496605</v>
+        <v>-0</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.02294172758150358</v>
+        <v>-0</v>
       </c>
       <c r="GG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -6697,52 +6697,52 @@
         <v>-0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>-0.221106836528105</v>
       </c>
       <c r="C12" t="n">
         <v>-0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.191585287853325</v>
+        <v>-0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01641313597044236</v>
+        <v>-0.2878857399217622</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.8712979103925175</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.09394249415640371</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" t="n">
         <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.1727167754779694</v>
       </c>
       <c r="L12" t="n">
         <v>-0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1539795337794966</v>
+        <v>-0</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.02959229914348553</v>
+        <v>-0.2775141871589787</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.6676345545360012</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.09128654549519567</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -6751,268 +6751,268 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.0373659982258582</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.0006868310479143471</v>
+        <v>-0</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.03692874711399504</v>
+        <v>0.04112989712602948</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>0.1034206590894462</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.01863330227787656</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>-0.05720176239347002</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.05620253845477672</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.03662692673935277</v>
+        <v>-0.1288302841526271</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0.07723553849355751</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.003929486671273244</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>0.01455750258498397</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.05212439493439186</v>
+        <v>-0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.04396327847237559</v>
+        <v>-0.09322679757286863</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0</v>
+        <v>0.1247262203950376</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.0116406851911609</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
         <v>-0</v>
       </c>
       <c r="AT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>-0.07066145564077166</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.05815161130356103</v>
+        <v>-0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.002481825111373258</v>
+        <v>0.01922888513280198</v>
       </c>
       <c r="AY12" t="n">
-        <v>-0</v>
+        <v>0.4942802903238477</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.1090790433572198</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>-0.1994744712165382</v>
       </c>
       <c r="BE12" t="n">
         <v>-0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.09108239287796639</v>
+        <v>-0</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.02314251702505426</v>
+        <v>-0.03530428292697001</v>
       </c>
       <c r="BH12" t="n">
-        <v>0</v>
+        <v>0.2489905100821108</v>
       </c>
       <c r="BI12" t="n">
         <v>-0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.0124885611578907</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>-0.03630005225799613</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.0226877772170855</v>
+        <v>-0</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.005103389541445553</v>
+        <v>-0.01917717179117922</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>0.05948717902642061</v>
       </c>
       <c r="BR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.06615980528539232</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
         <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.006062622089877032</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.04710113999492484</v>
+        <v>-0</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.0003457709318331429</v>
+        <v>-0.02243357167901034</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>0.2975748573210603</v>
       </c>
       <c r="CA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.04442538219981153</v>
+        <v>0</v>
       </c>
       <c r="CC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD12" t="n">
         <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>0.06281476344702656</v>
       </c>
       <c r="CF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0.04490472073723393</v>
+        <v>-0</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.01107126229294186</v>
+        <v>0.07154148032760793</v>
       </c>
       <c r="CI12" t="n">
-        <v>0</v>
+        <v>-0.1466167091289951</v>
       </c>
       <c r="CJ12" t="n">
         <v>0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.02982514837898066</v>
+        <v>-0</v>
       </c>
       <c r="CL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>0.0379120391037659</v>
       </c>
       <c r="CO12" t="n">
         <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0.01007558992752795</v>
+        <v>0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.07541260092392757</v>
+        <v>-0.279385683000632</v>
       </c>
       <c r="CR12" t="n">
-        <v>0</v>
+        <v>0.07195016943719665</v>
       </c>
       <c r="CS12" t="n">
         <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.02215241894140439</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV12" t="n">
         <v>-0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>0.06367338151896533</v>
       </c>
       <c r="CX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0.03623243706486305</v>
+        <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.01983119589338357</v>
+        <v>0.03727417712339783</v>
       </c>
       <c r="DA12" t="n">
-        <v>0</v>
+        <v>-0.137903392176251</v>
       </c>
       <c r="DB12" t="n">
         <v>-0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.02965444479802932</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
         <v>-0</v>
@@ -7021,52 +7021,52 @@
         <v>-0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>0.0247967333593625</v>
       </c>
       <c r="DG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.01473758653979169</v>
+        <v>-0</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.02318038003299366</v>
+        <v>-0.03110127067990226</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0</v>
+        <v>-0.01072938827602478</v>
       </c>
       <c r="DK12" t="n">
         <v>0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0.007116117857689293</v>
+        <v>-0</v>
       </c>
       <c r="DM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN12" t="n">
         <v>0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>0.01119170875830702</v>
       </c>
       <c r="DP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.04968576011067225</v>
+        <v>0</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.04730911716404546</v>
+        <v>0.007879340900966836</v>
       </c>
       <c r="DS12" t="n">
-        <v>0</v>
+        <v>0.01851607910422209</v>
       </c>
       <c r="DT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU12" t="n">
-        <v>-0.01438839384581976</v>
+        <v>0</v>
       </c>
       <c r="DV12" t="n">
         <v>0</v>
@@ -7075,25 +7075,25 @@
         <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>-0.03154649158567351</v>
       </c>
       <c r="DY12" t="n">
         <v>-0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>-0.00868097352013048</v>
+        <v>-0</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.05051441454640398</v>
+        <v>0.04526509821783425</v>
       </c>
       <c r="EB12" t="n">
-        <v>0</v>
+        <v>-0.08993534890300482</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0.01768896323837336</v>
+        <v>0</v>
       </c>
       <c r="EE12" t="n">
         <v>-0</v>
@@ -7102,25 +7102,25 @@
         <v>-0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0</v>
+        <v>0.008975020498871583</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0.09236272756381507</v>
+        <v>-0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.02777243939480923</v>
+        <v>0.03446350897591439</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0.1245051757887385</v>
       </c>
       <c r="EL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.04208267096344894</v>
+        <v>0</v>
       </c>
       <c r="EN12" t="n">
         <v>0</v>
@@ -7129,210 +7129,210 @@
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>0.1549382838030962</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.0648299093832448</v>
+        <v>-0</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.0438988085828002</v>
+        <v>0.03690189349556837</v>
       </c>
       <c r="ET12" t="n">
-        <v>-0</v>
+        <v>-0.0317489803067388</v>
       </c>
       <c r="EU12" t="n">
         <v>0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0.01573251883722442</v>
+        <v>-0</v>
       </c>
       <c r="EW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX12" t="n">
         <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>0.07278569090780956</v>
       </c>
       <c r="EZ12" t="n">
         <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0.03952949318973986</v>
+        <v>-0</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.01324639741407766</v>
+        <v>0.03442787436619713</v>
       </c>
       <c r="FC12" t="n">
-        <v>0</v>
+        <v>-0.1434358496531299</v>
       </c>
       <c r="FD12" t="n">
         <v>0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.04122561927157174</v>
+        <v>-0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG12" t="n">
         <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>-0.02279861785488897</v>
       </c>
       <c r="FI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.02737432567190806</v>
+        <v>-0</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.01053195278566344</v>
+        <v>0.01276797875017422</v>
       </c>
       <c r="FL12" t="n">
-        <v>-0</v>
+        <v>-0.1579279305518735</v>
       </c>
       <c r="FM12" t="n">
         <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.03018969957231145</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.0006493754640046888</v>
       </c>
       <c r="FR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.0431353554479335</v>
+        <v>-0</v>
       </c>
       <c r="FT12" t="n">
-        <v>-0.008481617767598454</v>
+        <v>-0.02749431817904533</v>
       </c>
       <c r="FU12" t="n">
-        <v>0</v>
+        <v>-0.223914581396043</v>
       </c>
       <c r="FV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.007679428151956759</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY12" t="n">
         <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0</v>
+        <v>0.05874845649092092</v>
       </c>
       <c r="GA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.002657120242399201</v>
+        <v>0</v>
       </c>
       <c r="GC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0.009371608649235632</v>
       </c>
       <c r="GE12" t="n">
         <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>-0.00382894367023309</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.2329435502198563</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2475912039818501</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1190946144681917</v>
+        <v>0.0002373644502742246</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.05561225772151875</v>
       </c>
       <c r="G13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.00370739045983687</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.1079730781307596</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3005475734215395</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.07661998360256607</v>
+        <v>0.03128399589181284</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-0.02552796912975341</v>
       </c>
       <c r="P13" t="n">
         <v>-0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.03023520239998698</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04049594757461055</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06754613635953836</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.07528367037782964</v>
+        <v>-0.009860153870817194</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-0.01136667501136281</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -7341,25 +7341,25 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>0.01327258482071575</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.02648003702580674</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.08779159859651356</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.08478034620366132</v>
+        <v>0.001898304858929698</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>-0.02241685513611509</v>
       </c>
       <c r="AH13" t="n">
         <v>-0</v>
@@ -7368,79 +7368,79 @@
         <v>-0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0</v>
+        <v>-0.01534423588891205</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.05886620417854723</v>
+        <v>-0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.04690413725620325</v>
+        <v>-0</v>
       </c>
       <c r="AN13" t="n">
         <v>-0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.02783546436574444</v>
+        <v>0.01922678225261462</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>-0.01662001451699358</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0</v>
+        <v>-0.01280980118774442</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0.1885655724118318</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.1905546384802169</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.04744909526757594</v>
+        <v>-0.09132229705636678</v>
       </c>
       <c r="AY13" t="n">
-        <v>-0</v>
+        <v>0.00393251099071577</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>-0</v>
+        <v>0.01659773603460062</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0.05959091696649135</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.05334636281747698</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
         <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.1059957905033208</v>
+        <v>0.01950261857870919</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>-0.03939545371110227</v>
       </c>
       <c r="BI13" t="n">
         <v>-0</v>
@@ -7449,187 +7449,187 @@
         <v>-0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0</v>
+        <v>0.01035472547212436</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.06063981254746342</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0.03274532955642037</v>
+        <v>-0</v>
       </c>
       <c r="BO13" t="n">
         <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.08404178096885942</v>
+        <v>0.00322631058369668</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>-0.007544259701508095</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
       </c>
       <c r="BS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-0.01358829758798074</v>
       </c>
       <c r="BU13" t="n">
-        <v>-0.101867344678177</v>
+        <v>0</v>
       </c>
       <c r="BV13" t="n">
         <v>0</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.09558270659423565</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.02033045490259274</v>
+        <v>-0.02624687823568516</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>-0.002605142802224728</v>
       </c>
       <c r="CA13" t="n">
         <v>0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0</v>
+        <v>0.02052932997039488</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.09539339214109513</v>
+        <v>-0</v>
       </c>
       <c r="CE13" t="n">
         <v>-0</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0.05089978247943745</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.007684225943175039</v>
+        <v>0.005591508862982265</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0</v>
+        <v>0.02185286149944073</v>
       </c>
       <c r="CJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0</v>
+        <v>-0.00189003679243338</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.07379701722344419</v>
+        <v>-0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO13" t="n">
-        <v>-0.04759902306341124</v>
+        <v>0</v>
       </c>
       <c r="CP13" t="n">
         <v>-0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.03561991676461883</v>
+        <v>0.0806251569098043</v>
       </c>
       <c r="CR13" t="n">
-        <v>0</v>
+        <v>0.02157925787388788</v>
       </c>
       <c r="CS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT13" t="n">
         <v>0</v>
       </c>
       <c r="CU13" t="n">
-        <v>-0</v>
+        <v>-0.0207487270649967</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.1019712268313472</v>
+        <v>0</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
       </c>
       <c r="CX13" t="n">
-        <v>-0.0499858306624732</v>
+        <v>0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.04622060208762558</v>
+        <v>0.009632573493642839</v>
       </c>
       <c r="DA13" t="n">
-        <v>0</v>
+        <v>0.0218333437105993</v>
       </c>
       <c r="DB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD13" t="n">
-        <v>0</v>
+        <v>0.002232074059556076</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0.002856223300050459</v>
+        <v>-0</v>
       </c>
       <c r="DF13" t="n">
         <v>-0</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0.03639457361480475</v>
+        <v>0</v>
       </c>
       <c r="DH13" t="n">
         <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.02309868863814488</v>
+        <v>-0.01232735150378772</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0</v>
+        <v>0.004627216834099883</v>
       </c>
       <c r="DK13" t="n">
         <v>-0</v>
       </c>
       <c r="DL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>0</v>
+        <v>0.004659647463817264</v>
       </c>
       <c r="DN13" t="n">
-        <v>-0.02775298918150138</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.03277273438445888</v>
+        <v>-0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.05834737179657793</v>
+        <v>0.0285945677928648</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>-0.02656534559444363</v>
       </c>
       <c r="DT13" t="n">
         <v>-0</v>
@@ -7638,52 +7638,52 @@
         <v>0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0</v>
+        <v>0.004134786568059344</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.02596871164091031</v>
+        <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.004078757635691937</v>
+        <v>-0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.002626265534835223</v>
+        <v>0.007846638399892397</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>-0.00969314247340765</v>
       </c>
       <c r="EC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED13" t="n">
         <v>0</v>
       </c>
       <c r="EE13" t="n">
-        <v>-0</v>
+        <v>-0.00522205214437885</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.09989443588477795</v>
+        <v>-0</v>
       </c>
       <c r="EG13" t="n">
         <v>0</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0.0700279864089912</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.002161968132949758</v>
+        <v>0.002079439106878711</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>0.01124195818678026</v>
       </c>
       <c r="EL13" t="n">
         <v>-0</v>
@@ -7692,25 +7692,25 @@
         <v>-0</v>
       </c>
       <c r="EN13" t="n">
-        <v>0</v>
+        <v>0.002963863977946115</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.0117047026261363</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
         <v>-0</v>
       </c>
       <c r="EQ13" t="n">
-        <v>-0.03695777048080116</v>
+        <v>-0</v>
       </c>
       <c r="ER13" t="n">
         <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.02895870690086024</v>
+        <v>0.05392321984341179</v>
       </c>
       <c r="ET13" t="n">
-        <v>0</v>
+        <v>0.01098674883410535</v>
       </c>
       <c r="EU13" t="n">
         <v>0</v>
@@ -7719,186 +7719,186 @@
         <v>-0</v>
       </c>
       <c r="EW13" t="n">
-        <v>-0</v>
+        <v>-0.02332778094425223</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.103971046508975</v>
+        <v>-0</v>
       </c>
       <c r="EY13" t="n">
         <v>-0</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0.05092864984580269</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.02047371456935608</v>
+        <v>0.0122334429801062</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>0.01680494242089724</v>
       </c>
       <c r="FD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0</v>
+        <v>0.004826240949589001</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.1052733530944941</v>
+        <v>-0</v>
       </c>
       <c r="FH13" t="n">
         <v>0</v>
       </c>
       <c r="FI13" t="n">
-        <v>-0.05535507337600865</v>
+        <v>0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.1429636326345714</v>
+        <v>0.03580964870013</v>
       </c>
       <c r="FL13" t="n">
-        <v>-0</v>
+        <v>0.02714303605003494</v>
       </c>
       <c r="FM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN13" t="n">
         <v>0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>0.008215925935070196</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.04033380662954453</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FR13" t="n">
-        <v>-0.02311010873236484</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.01103319867068901</v>
+        <v>0.01640652777602946</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0.02477527832126158</v>
       </c>
       <c r="FV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW13" t="n">
         <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>-0.001529197366839916</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.03548202556610668</v>
+        <v>0</v>
       </c>
       <c r="FZ13" t="n">
         <v>-0</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.06475974049907077</v>
+        <v>0</v>
       </c>
       <c r="GB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC13" t="n">
         <v>-0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>0.00112340473590815</v>
       </c>
       <c r="GE13" t="n">
         <v>0</v>
       </c>
       <c r="GF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG13" t="n">
-        <v>-0</v>
+        <v>0.009319233516918303</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2119605134841022</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1286102215375761</v>
+        <v>1.308808665528429</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-0.9348770699998959</v>
       </c>
       <c r="E14" t="n">
-        <v>0.432325526978475</v>
+        <v>-0.1098929729943792</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2601466452145783</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.1539245165754334</v>
+        <v>0.9524219163713621</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-0.9311897505578857</v>
       </c>
       <c r="N14" t="n">
-        <v>0.4162679386413413</v>
+        <v>-0.2164211160300658</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.02533339362286552</v>
+        <v>-0</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.01154913978944202</v>
+        <v>0.1991663696439961</v>
       </c>
       <c r="U14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-0.1578720678989262</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1950723856728595</v>
+        <v>-0.03376596168848428</v>
       </c>
       <c r="X14" t="n">
         <v>-0</v>
@@ -7907,52 +7907,52 @@
         <v>-0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.0556153666671267</v>
+        <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.05090653320921863</v>
+        <v>0.1852858888051332</v>
       </c>
       <c r="AD14" t="n">
         <v>-0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>-0.04027840492258764</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.1256133373329441</v>
+        <v>0.1070901362680913</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ14" t="n">
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.1069233401495806</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0.07372383637330149</v>
+        <v>0.2313094731652328</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>-0</v>
+        <v>-0.07600162093932519</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.02329699602784219</v>
+        <v>-0.007703275403871055</v>
       </c>
       <c r="AP14" t="n">
         <v>0</v>
@@ -7961,25 +7961,25 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.1022027385471616</v>
+        <v>-0</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0.005822912747680019</v>
+        <v>0.7823877480022248</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>-0.2209983023135745</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.3296814348494737</v>
+        <v>0.06727059662719277</v>
       </c>
       <c r="AY14" t="n">
         <v>0</v>
@@ -7991,76 +7991,76 @@
         <v>-0</v>
       </c>
       <c r="BB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.1014545273418619</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>-0.1158918630155697</v>
+        <v>0.2774198680537547</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0</v>
+        <v>-0.3484619050532204</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.1259676426583589</v>
+        <v>-0.3485719478219534</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
         <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.04699857103719893</v>
+        <v>-0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.07021033711589132</v>
+        <v>0.06151652745784428</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
-        <v>-0</v>
+        <v>-0.01490550228462422</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.1072659525758221</v>
+        <v>0.09827308457771793</v>
       </c>
       <c r="BQ14" t="n">
         <v>-0</v>
       </c>
       <c r="BR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.03793811211631636</v>
+        <v>-0</v>
       </c>
       <c r="BV14" t="n">
-        <v>-0.08771016931302063</v>
+        <v>0.3707069757807344</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0</v>
+        <v>-0.1849670908700745</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.165714818694774</v>
+        <v>0.07037535112019914</v>
       </c>
       <c r="BZ14" t="n">
         <v>0</v>
@@ -8072,49 +8072,49 @@
         <v>0</v>
       </c>
       <c r="CC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0.09634462244571504</v>
+        <v>-0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.02580619125389789</v>
+        <v>-0.2301326898445312</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>-0</v>
+        <v>0.1680779016796771</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.0861117323198522</v>
+        <v>-0.03486954115304523</v>
       </c>
       <c r="CI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ14" t="n">
         <v>-0</v>
       </c>
       <c r="CK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0.01003256164643754</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.0950244432860719</v>
+        <v>0.004416793185583341</v>
       </c>
       <c r="CO14" t="n">
         <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0</v>
+        <v>-0.08725156405998308</v>
       </c>
       <c r="CQ14" t="n">
-        <v>-0.0537818193330225</v>
+        <v>-0.07627806898693516</v>
       </c>
       <c r="CR14" t="n">
         <v>0</v>
@@ -8123,136 +8123,136 @@
         <v>-0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0.05939788142290661</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.03699474370639145</v>
+        <v>-0.2302151291479418</v>
       </c>
       <c r="CX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>0</v>
+        <v>0.1719024373807181</v>
       </c>
       <c r="CZ14" t="n">
-        <v>-0.0679912151300041</v>
+        <v>-0.04666819589943587</v>
       </c>
       <c r="DA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB14" t="n">
         <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD14" t="n">
         <v>-0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0.1210698372476184</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.05498706150255316</v>
+        <v>-0.1146960304368759</v>
       </c>
       <c r="DG14" t="n">
         <v>-0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0</v>
+        <v>0.2413254881851817</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.234906661965047</v>
+        <v>0.158716161792481</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM14" t="n">
         <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>-0.1013195168973971</v>
+        <v>-0</v>
       </c>
       <c r="DO14" t="n">
-        <v>-0.1339886418926484</v>
+        <v>-0.08583631234275667</v>
       </c>
       <c r="DP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>-0</v>
+        <v>0.04670155622248451</v>
       </c>
       <c r="DR14" t="n">
-        <v>-0.1297604196724622</v>
+        <v>-0.03288035927271162</v>
       </c>
       <c r="DS14" t="n">
         <v>0</v>
       </c>
       <c r="DT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU14" t="n">
         <v>0</v>
       </c>
       <c r="DV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0.1090834432876727</v>
+        <v>-0</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0.1119257778656634</v>
+        <v>0.09536324802628382</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>-0</v>
+        <v>0.06803288116111181</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.01336481822106455</v>
+        <v>-0.1189234792222384</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE14" t="n">
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0.049177252014558</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>-0.02068165194956061</v>
+        <v>-0.1708843513376761</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0</v>
+        <v>-0.08221862320492521</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.03081342021826725</v>
+        <v>0.001569151549309161</v>
       </c>
       <c r="EK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL14" t="n">
         <v>-0</v>
@@ -8264,22 +8264,22 @@
         <v>-0</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.003639834709423703</v>
+        <v>-0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0.08033602484552027</v>
+        <v>-0.1489690161200088</v>
       </c>
       <c r="EQ14" t="n">
         <v>0</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0</v>
+        <v>0.1394366967514202</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.1574891654884702</v>
+        <v>-0.08112571171579148</v>
       </c>
       <c r="ET14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU14" t="n">
         <v>-0</v>
@@ -8291,19 +8291,19 @@
         <v>-0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0.05122626609792734</v>
+        <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.04420581512071231</v>
+        <v>-0.2281903067380729</v>
       </c>
       <c r="EZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0</v>
+        <v>0.1682180645272268</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.0499305010660499</v>
+        <v>-0.05984456631659789</v>
       </c>
       <c r="FC14" t="n">
         <v>-0</v>
@@ -8312,25 +8312,25 @@
         <v>-0</v>
       </c>
       <c r="FE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG14" t="n">
-        <v>-0.03834452549405333</v>
+        <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.1694036385311687</v>
+        <v>-0.1306955604324998</v>
       </c>
       <c r="FI14" t="n">
         <v>-0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>-0</v>
+        <v>0.09206098888941092</v>
       </c>
       <c r="FK14" t="n">
-        <v>-0.1896360498192878</v>
+        <v>-0.07488286842873074</v>
       </c>
       <c r="FL14" t="n">
         <v>-0</v>
@@ -8345,19 +8345,19 @@
         <v>0</v>
       </c>
       <c r="FP14" t="n">
-        <v>-0.2189949274829368</v>
+        <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>-0.1138616849363808</v>
+        <v>-0.1026866946576303</v>
       </c>
       <c r="FR14" t="n">
         <v>-0</v>
       </c>
       <c r="FS14" t="n">
-        <v>-0</v>
+        <v>0.1841638084470106</v>
       </c>
       <c r="FT14" t="n">
-        <v>-0.02691268389651892</v>
+        <v>0.07015583779136704</v>
       </c>
       <c r="FU14" t="n">
         <v>-0</v>
@@ -8366,28 +8366,28 @@
         <v>-0</v>
       </c>
       <c r="FW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX14" t="n">
         <v>0</v>
       </c>
       <c r="FY14" t="n">
-        <v>-0.08264620774623954</v>
+        <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0.1325727763941547</v>
+        <v>0.01144927622294583</v>
       </c>
       <c r="GA14" t="n">
         <v>-0</v>
       </c>
       <c r="GB14" t="n">
-        <v>0</v>
+        <v>-0.04691156329841149</v>
       </c>
       <c r="GC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE14" t="n">
         <v>-0</v>
@@ -8401,7 +8401,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1590343445439425</v>
+        <v>-0.4939116128137761</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -8410,43 +8410,43 @@
         <v>-0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5881702393341225</v>
+        <v>-0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.002511130587212326</v>
+        <v>0.1569860698529591</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.6035442510202512</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.08082222478315225</v>
+        <v>-0.2558611919359778</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5859104784079437</v>
+        <v>-0</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.04672204439615472</v>
+        <v>0.0582866918295185</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P15" t="n">
-        <v>-0</v>
+        <v>0.542132879297482</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -8455,34 +8455,34 @@
         <v>-0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.004899976520067293</v>
+        <v>-0.07476548522507322</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U15" t="n">
         <v>-0</v>
       </c>
       <c r="V15" t="n">
-        <v>0.2545907325739645</v>
+        <v>-0</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.1322697998454271</v>
+        <v>-0.09598559661988212</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0</v>
+        <v>0.2150410361024774</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.01670904581738688</v>
+        <v>-0.1531396634114088</v>
       </c>
       <c r="AC15" t="n">
         <v>-0</v>
@@ -8491,43 +8491,43 @@
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.06730059364867422</v>
+        <v>-0</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.1334148441567779</v>
+        <v>-0.1494490801356248</v>
       </c>
       <c r="AG15" t="n">
         <v>-0</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>0.1690194499334543</v>
       </c>
       <c r="AI15" t="n">
         <v>-0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0.1448452411513079</v>
+        <v>-0.04906746559503553</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.2557222855890948</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.08051978815288297</v>
+        <v>0.02836944712298737</v>
       </c>
       <c r="AP15" t="n">
         <v>-0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>0.06633846824378302</v>
       </c>
       <c r="AR15" t="n">
         <v>-0</v>
@@ -8536,79 +8536,79 @@
         <v>-0</v>
       </c>
       <c r="AT15" t="n">
-        <v>-0.151160278353158</v>
+        <v>-0.4013886679464559</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.2317262679140075</v>
+        <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.0008758227833893562</v>
+        <v>0.3689692881317027</v>
       </c>
       <c r="AY15" t="n">
         <v>-0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0</v>
+        <v>0.1851137009675186</v>
       </c>
       <c r="BA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0.05043871939758263</v>
+        <v>-0.193053817176442</v>
       </c>
       <c r="BD15" t="n">
         <v>-0</v>
       </c>
       <c r="BE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.2439721374731111</v>
+        <v>-0</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.152102435651474</v>
+        <v>-0.07567763798720785</v>
       </c>
       <c r="BH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI15" t="n">
-        <v>-0</v>
+        <v>0.2310889575258323</v>
       </c>
       <c r="BJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.05716206468821251</v>
+        <v>0.02018929521078965</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.06390148825165771</v>
+        <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.003092635071494675</v>
+        <v>0.04133789681579462</v>
       </c>
       <c r="BQ15" t="n">
         <v>0</v>
       </c>
       <c r="BR15" t="n">
-        <v>-0</v>
+        <v>-0.2157488552754015</v>
       </c>
       <c r="BS15" t="n">
         <v>-0</v>
@@ -8617,115 +8617,115 @@
         <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>-0.1603720779666029</v>
+        <v>-0.1074659778450944</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.2825540615666997</v>
+        <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>-0.08364664974224459</v>
+        <v>0.1469899823385771</v>
       </c>
       <c r="BZ15" t="n">
         <v>-0</v>
       </c>
       <c r="CA15" t="n">
-        <v>0</v>
+        <v>0.1757583317475924</v>
       </c>
       <c r="CB15" t="n">
         <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.03237922761468412</v>
+        <v>0.1457221263874172</v>
       </c>
       <c r="CE15" t="n">
         <v>-0</v>
       </c>
       <c r="CF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG15" t="n">
-        <v>-0.1256291467884346</v>
+        <v>0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.03283657439101448</v>
+        <v>-0.01735179095137467</v>
       </c>
       <c r="CI15" t="n">
         <v>-0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0</v>
+        <v>-0.1341120779478027</v>
       </c>
       <c r="CK15" t="n">
         <v>-0</v>
       </c>
       <c r="CL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.1102718200678189</v>
+        <v>0.02090477839050109</v>
       </c>
       <c r="CN15" t="n">
         <v>-0</v>
       </c>
       <c r="CO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP15" t="n">
-        <v>-0.125322314720863</v>
+        <v>0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.3682116776265238</v>
+        <v>-0.01048492644287064</v>
       </c>
       <c r="CR15" t="n">
         <v>0</v>
       </c>
       <c r="CS15" t="n">
-        <v>-0</v>
+        <v>-0.0385768861766372</v>
       </c>
       <c r="CT15" t="n">
         <v>0</v>
       </c>
       <c r="CU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.03276852320690732</v>
+        <v>0.1133495510571707</v>
       </c>
       <c r="CW15" t="n">
         <v>0</v>
       </c>
       <c r="CX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY15" t="n">
-        <v>-0.09046414027309196</v>
+        <v>-0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.07255559036634376</v>
+        <v>-0.02835399900199345</v>
       </c>
       <c r="DA15" t="n">
         <v>0</v>
       </c>
       <c r="DB15" t="n">
-        <v>0</v>
+        <v>-0.1352090492963366</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
       </c>
       <c r="DD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0.02798328785477983</v>
+        <v>0.02905714315653754</v>
       </c>
       <c r="DF15" t="n">
         <v>-0</v>
@@ -8734,25 +8734,25 @@
         <v>-0</v>
       </c>
       <c r="DH15" t="n">
-        <v>-0.02604994033329749</v>
+        <v>0</v>
       </c>
       <c r="DI15" t="n">
-        <v>-0.1107189160790137</v>
+        <v>0.0646889222802878</v>
       </c>
       <c r="DJ15" t="n">
         <v>-0</v>
       </c>
       <c r="DK15" t="n">
-        <v>0</v>
+        <v>-0.03993143317849282</v>
       </c>
       <c r="DL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0.006259747026667353</v>
+        <v>0.02366946866675789</v>
       </c>
       <c r="DO15" t="n">
         <v>-0</v>
@@ -8761,25 +8761,25 @@
         <v>0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.01756646751231727</v>
+        <v>-0</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.1728438916819582</v>
+        <v>0.143261460082946</v>
       </c>
       <c r="DS15" t="n">
         <v>0</v>
       </c>
       <c r="DT15" t="n">
-        <v>-0</v>
+        <v>-0.2289614660696566</v>
       </c>
       <c r="DU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.03018237892391804</v>
+        <v>-0.07113334814876371</v>
       </c>
       <c r="DX15" t="n">
         <v>-0</v>
@@ -8788,16 +8788,16 @@
         <v>-0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>-0.1178288757967365</v>
+        <v>0</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.134891800078981</v>
+        <v>0.02882108243731646</v>
       </c>
       <c r="EB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC15" t="n">
-        <v>0</v>
+        <v>-0.1016696283047705</v>
       </c>
       <c r="ED15" t="n">
         <v>-0</v>
@@ -8806,79 +8806,79 @@
         <v>-0</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.1115263766766151</v>
+        <v>0.1629419495772307</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI15" t="n">
-        <v>-0.1508680013733389</v>
+        <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.05198986794456255</v>
+        <v>-0.005952676111379841</v>
       </c>
       <c r="EK15" t="n">
         <v>-0</v>
       </c>
       <c r="EL15" t="n">
-        <v>0</v>
+        <v>-0.03785647442777685</v>
       </c>
       <c r="EM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN15" t="n">
         <v>0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0.05197573580888462</v>
+        <v>-0.03630567658745638</v>
       </c>
       <c r="EP15" t="n">
         <v>-0</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER15" t="n">
-        <v>-0.1212985227661411</v>
+        <v>0</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.0630630419164717</v>
+        <v>-0.08534627434831743</v>
       </c>
       <c r="ET15" t="n">
         <v>-0</v>
       </c>
       <c r="EU15" t="n">
-        <v>0</v>
+        <v>0.01488661544394157</v>
       </c>
       <c r="EV15" t="n">
         <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.05559898092410452</v>
+        <v>0.09000952936924089</v>
       </c>
       <c r="EY15" t="n">
         <v>-0</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA15" t="n">
-        <v>-0.0852945054998662</v>
+        <v>0</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.04885664349551512</v>
+        <v>0.006202284530266975</v>
       </c>
       <c r="FC15" t="n">
         <v>-0</v>
       </c>
       <c r="FD15" t="n">
-        <v>-0</v>
+        <v>-0.1541394902276118</v>
       </c>
       <c r="FE15" t="n">
         <v>-0</v>
@@ -8887,85 +8887,85 @@
         <v>-0</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.1199726394057066</v>
+        <v>0.03815560011000924</v>
       </c>
       <c r="FH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>-0.149685334592215</v>
+        <v>-0</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.07032753487790705</v>
+        <v>-0.1009462424527777</v>
       </c>
       <c r="FL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM15" t="n">
-        <v>-0</v>
+        <v>-0.02716351066730101</v>
       </c>
       <c r="FN15" t="n">
         <v>-0</v>
       </c>
       <c r="FO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0.1279144503602075</v>
+        <v>0.06017099582304924</v>
       </c>
       <c r="FQ15" t="n">
         <v>-0</v>
       </c>
       <c r="FR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.06135066157799051</v>
+        <v>0</v>
       </c>
       <c r="FT15" t="n">
-        <v>-0.2201108138995975</v>
+        <v>-0.01898221648548533</v>
       </c>
       <c r="FU15" t="n">
         <v>0</v>
       </c>
       <c r="FV15" t="n">
-        <v>-0</v>
+        <v>0.1847307547213521</v>
       </c>
       <c r="FW15" t="n">
         <v>-0</v>
       </c>
       <c r="FX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY15" t="n">
-        <v>-0.1153301204276318</v>
+        <v>-0.04417894170958164</v>
       </c>
       <c r="FZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GA15" t="n">
         <v>0</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.04661999665200962</v>
+        <v>0</v>
       </c>
       <c r="GC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE15" t="n">
-        <v>-0</v>
+        <v>-0.010031883731272</v>
       </c>
       <c r="GF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
